--- a/build/classes/files/asociados.xlsx
+++ b/build/classes/files/asociados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEC\II SEMESTRE\Progra Orientada a Objetos\TAREAS PROGRAMADAS\TAREA 1\PROYECTO JAVA\Proyecto-1-POO\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B582833E-8848-47C6-BF66-DF9FDBEA4E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DBCD78-132B-4FDF-B956-D8C29F9D845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2220" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Nombre</t>
   </si>
@@ -49,7 +49,22 @@
     <t>Ericka Solano</t>
   </si>
   <si>
-    <t>San José, Cartago, Limón</t>
+    <t>pz</t>
+  </si>
+  <si>
+    <t>San José,Cartago,Limón</t>
+  </si>
+  <si>
+    <t>murillomf2001@gmail.com</t>
+  </si>
+  <si>
+    <t>6012-7974</t>
+  </si>
+  <si>
+    <t>erisolfer@gmail.com</t>
+  </si>
+  <si>
+    <t>Cartago</t>
   </si>
 </sst>
 </file>
@@ -94,9 +109,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -415,7 +431,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,11 +463,11 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>60127974</v>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -459,27 +475,25 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>60127974</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>60127974</v>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -487,10 +501,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>60127974</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -500,9 +514,9 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4261CDFF-C8DA-49EF-B270-A563B590788F}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{B49269CD-C585-47FA-91E8-45D2CD1D9115}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{83E17E4D-F44F-488D-AA2C-0D2C4989E0AC}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{BF082ADF-5FC2-492B-B3A4-3F3AFCF25723}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{BF082ADF-5FC2-492B-B3A4-3F3AFCF25723}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/build/classes/files/asociados.xlsx
+++ b/build/classes/files/asociados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEC\II SEMESTRE\Progra Orientada a Objetos\TAREAS PROGRAMADAS\TAREA 1\PROYECTO JAVA\Proyecto-1-POO\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DBCD78-132B-4FDF-B956-D8C29F9D845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4D26F0-4AD6-44C1-B76F-B5A749D0F0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="3630" windowWidth="19020" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Nombre</t>
   </si>
@@ -52,9 +52,6 @@
     <t>pz</t>
   </si>
   <si>
-    <t>San José,Cartago,Limón</t>
-  </si>
-  <si>
     <t>murillomf2001@gmail.com</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
   </si>
   <si>
     <t>erisolfer@gmail.com</t>
-  </si>
-  <si>
-    <t>Cartago</t>
   </si>
 </sst>
 </file>
@@ -431,7 +425,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,10 +458,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -475,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,10 +484,10 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -501,10 +495,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>

--- a/build/classes/files/asociados.xlsx
+++ b/build/classes/files/asociados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEC\II SEMESTRE\Progra Orientada a Objetos\TAREAS PROGRAMADAS\TAREA 1\PROYECTO JAVA\Proyecto-1-POO\src\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TEC\II semestre 2021\POO\proyecto1\Proyecto-1-POO\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4D26F0-4AD6-44C1-B76F-B5A749D0F0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1FA544-C209-41C6-8FF4-9A89992944DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="3630" windowWidth="19020" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="3825" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Nombre</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>erisolfer@gmail.com</t>
+  </si>
+  <si>
+    <t>cesarjjxd@gmail.com</t>
+  </si>
+  <si>
+    <t>8529-6827</t>
+  </si>
+  <si>
+    <t>8598-6048</t>
+  </si>
+  <si>
+    <t>San José,Heredia,Cartago</t>
+  </si>
+  <si>
+    <t>San José,Heredia,Cartago,Alajuela,Puntarenas</t>
   </si>
 </sst>
 </file>
@@ -109,7 +124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -126,7 +141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,15 +440,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -461,7 +476,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,22 +487,24 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -509,8 +526,9 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4261CDFF-C8DA-49EF-B270-A563B590788F}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{B49269CD-C585-47FA-91E8-45D2CD1D9115}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{BF082ADF-5FC2-492B-B3A4-3F3AFCF25723}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{6B4B889A-C166-40C8-8E93-FB6D377FEF87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/build/classes/files/asociados.xlsx
+++ b/build/classes/files/asociados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TEC\II semestre 2021\POO\proyecto1\Proyecto-1-POO\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1FA544-C209-41C6-8FF4-9A89992944DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBBFEED-DECD-4891-BFF8-83966A7103AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="3825" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="4080" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Nombre</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Celular</t>
   </si>
   <si>
-    <t>Provincias</t>
-  </si>
-  <si>
     <t>Maynor Martínez</t>
   </si>
   <si>
@@ -68,12 +65,6 @@
   </si>
   <si>
     <t>8598-6048</t>
-  </si>
-  <si>
-    <t>San José,Heredia,Cartago</t>
-  </si>
-  <si>
-    <t>San José,Heredia,Cartago,Alajuela,Puntarenas</t>
   </si>
 </sst>
 </file>
@@ -440,7 +431,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,63 +453,63 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/files/asociados.xlsx
+++ b/build/classes/files/asociados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TEC\II semestre 2021\POO\proyecto1\Proyecto-1-POO\src\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEC\II SEMESTRE\Progra Orientada a Objetos\TAREAS PROGRAMADAS\TAREA 1\PROYECTO JAVA\Proyecto-1-POO\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBBFEED-DECD-4891-BFF8-83966A7103AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7956515B-B4B8-414B-839B-E25D3FD70029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="4080" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Nombre</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Ericka Solano</t>
   </si>
   <si>
-    <t>pz</t>
-  </si>
-  <si>
     <t>murillomf2001@gmail.com</t>
   </si>
   <si>
@@ -65,6 +62,12 @@
   </si>
   <si>
     <t>8598-6048</t>
+  </si>
+  <si>
+    <t>Provincias</t>
+  </si>
+  <si>
+    <t>Cartago</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -132,7 +135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -431,10 +434,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
@@ -453,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -464,10 +467,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -475,13 +478,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,13 +492,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,13 +506,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
